--- a/Fortschrittsliste.xlsx
+++ b/Fortschrittsliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limjo\Desktop\Protokoll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limjo\Documents\GitHubRepos\Chatify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D522638B-8782-4040-B9C1-359E977B7771}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD21EA3-6821-4978-A8CC-F329BEC852C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EE98FBEA-C97E-434F-B0CB-B3699E57E6EA}"/>
+    <workbookView xWindow="-9135" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{EE98FBEA-C97E-434F-B0CB-B3699E57E6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>CHATIFY! CHATSERVER</t>
   </si>
@@ -297,12 +297,21 @@
   <si>
     <t>chatify_prototyp_v3</t>
   </si>
+  <si>
+    <t>Chatify Chatserver V4</t>
+  </si>
+  <si>
+    <t>V4 ermöglicht das erstellen von Usern, sowie der Wechsel von dem Register und Login Fenster auf die Applikation. Mit einem Knopfdruck kann man auch den Benutzername anzeigen lassen, welches später jedoch so umgeändert wird, dass dies automatisch passiert.</t>
+  </si>
+  <si>
+    <t>chatify_prototyp_v4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,13 +369,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -418,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -480,6 +482,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -796,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008136B5-3DB5-4D64-8A06-316028D9E8F8}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,35 +1483,67 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="11">
+        <v>43952</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
